--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB83BC2-AA7E-4CE3-B064-38C44928A257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C64CFA-BECC-4062-972A-84F6B5A42CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="1820" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{511D819F-C477-4292-83B8-A2D3252CC88D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{511D819F-C477-4292-83B8-A2D3252CC88D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L6" sqref="A6:L6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84EBBB0-3A7B-46C2-A26E-3E8A62CA3278}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H4" sqref="B3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
         <v>51</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
@@ -1209,7 +1209,7 @@
         <v>59</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>65</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>65</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>65</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -1309,7 +1309,7 @@
         <v>70</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
         <v>75</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I12" t="s">
         <v>78</v>
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="A19:B21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37E88A6-8C6F-4D79-A09C-50AB8814C23D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,5 +1518,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C64CFA-BECC-4062-972A-84F6B5A42CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2417F30-E793-46A9-89D8-C7BAC18433D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{511D819F-C477-4292-83B8-A2D3252CC88D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -222,12 +222,6 @@
     <t>Reduce Stamina Cost by 2 Points</t>
   </si>
   <si>
-    <t>VStaminaCostModiferEffect</t>
-  </si>
-  <si>
-    <t>OnPreCardApply</t>
-  </si>
-  <si>
     <t>AddBuff_0</t>
   </si>
   <si>
@@ -288,7 +282,19 @@
     <t>NE2Param</t>
   </si>
   <si>
-    <t>Points</t>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>E2UpgradedParam</t>
+  </si>
+  <si>
+    <t>E1UpgradedParam</t>
+  </si>
+  <si>
+    <t>VAttributeGainPointsModifierEffect</t>
+  </si>
+  <si>
+    <t>OnTurnBegin</t>
   </si>
 </sst>
 </file>
@@ -643,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963A3D60-24B6-48D4-A264-5BC3C590ED89}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,17 +668,19 @@
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
-    <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" customWidth="1"/>
+    <col min="23" max="24" width="12.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -710,43 +718,49 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -774,8 +788,11 @@
       <c r="L2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -803,8 +820,11 @@
       <c r="L3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -832,8 +852,11 @@
       <c r="L4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -861,8 +884,11 @@
       <c r="L5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -888,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -914,7 +940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -942,8 +968,11 @@
       <c r="L8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -971,8 +1000,11 @@
       <c r="L9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -998,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1026,13 +1058,16 @@
       <c r="L11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1053,6 +1088,9 @@
         <v>10</v>
       </c>
       <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
         <v>2</v>
       </c>
     </row>
@@ -1064,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84EBBB0-3A7B-46C2-A26E-3E8A62CA3278}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H4" sqref="B3:H4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,15 +1113,16 @@
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1099,20 +1138,23 @@
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1128,11 +1170,14 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1148,14 +1193,17 @@
       <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="H3">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1168,14 +1216,17 @@
       <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="H4">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1188,14 +1239,17 @@
       <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="H5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>-1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1208,11 +1262,14 @@
       <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="H6">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1223,113 +1280,131 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>-1</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>-1</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>-1</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11">
+        <v>68</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12">
+        <v>73</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>-1</v>
       </c>
-      <c r="I12" t="s">
-        <v>78</v>
+      <c r="J12" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1418,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1417,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1437,16 +1512,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1490,7 +1565,7 @@
         <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2417F30-E793-46A9-89D8-C7BAC18433D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4510104-915C-4C6F-A0C4-E08E2D5E411B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{511D819F-C477-4292-83B8-A2D3252CC88D}"/>
   </bookViews>
@@ -652,7 +652,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M5" sqref="L5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7ED85E-5999-4C6B-9DB3-E9BAC4EBA6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CA2FC1-3C6D-40B5-8C1F-2807FF4FEA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="1820" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25620" yWindow="1940" windowWidth="25580" windowHeight="13670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -367,9 +367,6 @@
   </si>
   <si>
     <t>BAPlayLeft</t>
-  </si>
-  <si>
-    <t>ApplyWhenBuffAdded</t>
   </si>
 </sst>
 </file>
@@ -1228,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1247,7 +1244,7 @@
     <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1275,11 +1272,8 @@
       <c r="I1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1299,7 +1293,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1325,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1348,7 +1342,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1391,7 +1385,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1417,7 +1411,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1440,7 +1434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1463,7 +1457,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1486,7 +1480,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1506,7 +1500,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1529,7 +1523,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1552,7 +1546,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1578,7 +1572,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1604,7 +1598,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1660,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>好调+X</t>
+  </si>
+  <si>
+    <t>参数上升量+X</t>
+  </si>
+  <si>
+    <t>参上升量+X</t>
   </si>
   <si>
     <t>BuffType</t>
@@ -1301,7 +1307,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1839,7 +1845,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H23" sqref="E21 H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1931,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>-1</v>
@@ -1958,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>-1</v>
@@ -2038,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>-1</v>
@@ -2308,9 +2314,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="6:9">
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2325,7 +2348,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -2350,10 +2373,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -2379,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2407,10 +2430,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2431,10 +2454,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2455,10 +2478,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2511,16 +2534,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2528,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
         <v>77</v>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CA2FC1-3C6D-40B5-8C1F-2807FF4FEA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C4203-1B90-4BBF-8562-F4D6789F425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25620" yWindow="1940" windowWidth="25580" windowHeight="13670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C4203-1B90-4BBF-8562-F4D6789F425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B468743E-E1A5-4A74-9A80-7F7C9AA19DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B468743E-E1A5-4A74-9A80-7F7C9AA19DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0990A8D-CBCA-4538-90D9-386051B0DB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="1820" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0990A8D-CBCA-4538-90D9-386051B0DB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C5E3B5-F3E4-46FC-9FAD-99EB105D748C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="1820" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -318,12 +318,6 @@
   </si>
   <si>
     <t>好调+X</t>
-  </si>
-  <si>
-    <t>参数上升量+X</t>
-  </si>
-  <si>
-    <t>参上升量+X</t>
   </si>
   <si>
     <t>BuffType</t>
@@ -1844,8 +1838,8 @@
   <sheetPr/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H23" sqref="E21 H23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2315,25 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
       <c r="F18" s="1"/>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
+      <c r="I18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2373,10 +2355,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -2402,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2430,10 +2412,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2454,10 +2436,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2478,10 +2460,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2534,16 +2516,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>107</v>
-      </c>
-      <c r="F1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2551,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>77</v>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C5E3B5-F3E4-46FC-9FAD-99EB105D748C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A54A6C-2C8D-4F32-A025-2ECBE3B852A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="1820" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -261,12 +261,6 @@
     <t>体力消耗削减2点</t>
   </si>
   <si>
-    <t>VAttributeGainPointsModifierEffect</t>
-  </si>
-  <si>
-    <t>OnPreCardApply</t>
-  </si>
-  <si>
     <t>BAStamina</t>
   </si>
   <si>
@@ -367,6 +361,18 @@
   </si>
   <si>
     <t>BAPlayLeft</t>
+  </si>
+  <si>
+    <t>VShieldStaminaModifierEffect</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>NotRepeatable</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -682,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -699,21 +705,22 @@
     <col min="8" max="8" width="7.140625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
-    <col min="21" max="21" width="11" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" customWidth="1"/>
-    <col min="23" max="24" width="12.42578125" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" customWidth="1"/>
+    <col min="24" max="25" width="12.42578125" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,55 +752,58 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>0</v>
       </c>
@@ -819,16 +829,19 @@
         <v>0</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>11</v>
-      </c>
-      <c r="L2">
-        <v>7</v>
       </c>
       <c r="M2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="N2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>1</v>
       </c>
@@ -854,16 +867,19 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="N3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>2</v>
       </c>
@@ -889,16 +905,19 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>11</v>
-      </c>
-      <c r="L4">
-        <v>15</v>
       </c>
       <c r="M4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="N4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>3</v>
       </c>
@@ -924,22 +943,28 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>11</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
       </c>
       <c r="M5">
         <v>5</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>4</v>
       </c>
@@ -970,8 +995,11 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>5</v>
       </c>
@@ -997,10 +1025,13 @@
         <v>1</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1029,28 +1060,37 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>7</v>
       </c>
       <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>14</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1076,16 +1116,19 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="N9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1111,25 +1154,28 @@
         <v>0</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>6</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>4</v>
       </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
       <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
         <v>3</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1155,25 +1201,28 @@
         <v>0</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>7</v>
       </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
       <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
         <v>3</v>
       </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1199,22 +1248,60 @@
         <v>0</v>
       </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>15</v>
       </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
       <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
         <v>3</v>
       </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
       <c r="O12">
         <v>2</v>
       </c>
       <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1225,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1396,13 +1483,13 @@
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1416,13 +1503,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1439,13 +1526,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1462,13 +1549,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1485,13 +1572,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1505,16 +1592,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
         <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" t="s">
-        <v>86</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1528,10 +1615,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>62</v>
@@ -1551,13 +1638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1577,19 +1664,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
         <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1603,16 +1690,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
         <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1626,13 +1713,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1641,6 +1728,26 @@
         <v>0</v>
       </c>
       <c r="I17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>-1</v>
       </c>
     </row>
@@ -1652,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1680,10 +1787,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>53</v>
@@ -1712,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1741,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1764,10 +1871,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1787,10 +1894,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1802,6 +1909,29 @@
         <v>13</v>
       </c>
       <c r="G5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
         <v>0.5</v>
       </c>
     </row>
@@ -1840,16 +1970,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>105</v>
-      </c>
-      <c r="F1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1857,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>20</v>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A54A6C-2C8D-4F32-A025-2ECBE3B852A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1EB55E-4DA4-4AD5-B5B3-83FC249322B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="1820" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -690,34 +690,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.1796875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" customWidth="1"/>
+    <col min="17" max="17" width="17.1796875" customWidth="1"/>
+    <col min="20" max="20" width="17.7265625" customWidth="1"/>
+    <col min="21" max="21" width="10.7265625" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" customWidth="1"/>
-    <col min="24" max="25" width="12.42578125" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.7265625" customWidth="1"/>
+    <col min="24" max="25" width="12.453125" customWidth="1"/>
+    <col min="26" max="26" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1306,7 +1306,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1315,19 +1315,19 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="7" max="8" width="10.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1761,21 +1761,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1945,17 +1945,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C5E3B5-F3E4-46FC-9FAD-99EB105D748C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -27,6 +21,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -66,6 +62,9 @@
     <t>IsExhaust</t>
   </si>
   <si>
+    <t>NotRepeatable</t>
+  </si>
+  <si>
     <t>Effect1</t>
   </si>
   <si>
@@ -162,22 +161,25 @@
     <t>重抽其他手牌，抽牌次数+1</t>
   </si>
   <si>
+    <t>Rare</t>
+  </si>
+  <si>
     <t>才八点</t>
   </si>
   <si>
     <t>获得一个额外回合，神采+7，出牌次数+1</t>
   </si>
   <si>
-    <t>精神焕发</t>
-  </si>
-  <si>
-    <t>获得体力削减1点，神采+4</t>
+    <t>渐入佳境</t>
+  </si>
+  <si>
+    <t>体力消耗减少1点，神采+4</t>
   </si>
   <si>
     <t>wink</t>
   </si>
   <si>
-    <t>亲和力+3，神采+3</t>
+    <t>亲和力+3，神采+2</t>
   </si>
   <si>
     <t>集中</t>
@@ -186,211 +188,616 @@
     <t>专注+2，神采+2</t>
   </si>
   <si>
-    <t>好调+2</t>
+    <t>这个好诶</t>
   </si>
   <si>
     <t>好调+2，神采+2</t>
   </si>
   <si>
+    <t>二次推流</t>
+  </si>
+  <si>
+    <t>参数+9/2次</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>参数+11，神采+7</t>
+  </si>
+  <si>
+    <t>小花花</t>
+  </si>
+  <si>
+    <t>亲和力+6</t>
+  </si>
+  <si>
+    <t>饭撒</t>
+  </si>
+  <si>
+    <t>获得亲和力140%的参数</t>
+  </si>
+  <si>
+    <t>desuwa</t>
+  </si>
+  <si>
+    <t>亲和力+4，获得亲和力层数80%的参数</t>
+  </si>
+  <si>
+    <t>欢迎上舰</t>
+  </si>
+  <si>
+    <t>舰长+1，神采+4，体力消耗减少+3回合</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
     <t>WhenToApply</t>
   </si>
   <si>
+    <t>Condition1</t>
+  </si>
+  <si>
+    <t>Condition2</t>
+  </si>
+  <si>
+    <t>MultiplyByLayer</t>
+  </si>
+  <si>
+    <t>下一张牌使用两次</t>
+  </si>
+  <si>
+    <t>VDoublePlayEffect</t>
+  </si>
+  <si>
+    <t>回合结束时，参数+X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回合结束时，参数+ {AttributeDelta} </t>
+  </si>
+  <si>
+    <t>VAddEffect</t>
+  </si>
+  <si>
+    <t>BAParameter</t>
+  </si>
+  <si>
+    <t>OnTurnResolution</t>
+  </si>
+  <si>
+    <t>神采+X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神采+ {AttributeDelta} </t>
+  </si>
+  <si>
+    <t>BAShield</t>
+  </si>
+  <si>
+    <t>回合+X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回合+ {AttributeDelta} </t>
+  </si>
+  <si>
+    <t>BATurn</t>
+  </si>
+  <si>
+    <t>重抽手牌</t>
+  </si>
+  <si>
+    <t>重新抽取剩余手牌</t>
+  </si>
+  <si>
+    <t>VRedrawEffect</t>
+  </si>
+  <si>
+    <t>体力消耗削减X点</t>
+  </si>
+  <si>
+    <t>VShieldStaminaModifierEffect</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>亲和力+X</t>
+  </si>
+  <si>
+    <t>VBuffModifyEffect</t>
+  </si>
+  <si>
+    <t>专注+X</t>
+  </si>
+  <si>
+    <t>积极+X</t>
+  </si>
+  <si>
+    <t>抽X张卡牌</t>
+  </si>
+  <si>
+    <t>VDrawCardEffect</t>
+  </si>
+  <si>
+    <t>从抽牌堆选择卡牌</t>
+  </si>
+  <si>
+    <t>VPickCardFromPileEffect</t>
+  </si>
+  <si>
+    <t>DrawPile</t>
+  </si>
+  <si>
+    <t>参数+X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">参数+ {AttributeDelta} </t>
+  </si>
+  <si>
+    <t>回合结束时，亲和力-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回合结束时，亲和力-{AttributeDelta} </t>
+  </si>
+  <si>
+    <t>参数获得量增加X%</t>
+  </si>
+  <si>
+    <t>VAttributeGainRateModifierEffect</t>
+  </si>
+  <si>
+    <t>手牌使用次数+X</t>
+  </si>
+  <si>
+    <t>BAPlayLeft</t>
+  </si>
+  <si>
+    <t>好调+X</t>
+  </si>
+  <si>
+    <t>参数获得量+X</t>
+  </si>
+  <si>
+    <t>VAttributeGainPointsModifierEffect</t>
+  </si>
+  <si>
+    <t>沉浸+X</t>
+  </si>
+  <si>
+    <t>亲和力X%的参数获得</t>
+  </si>
+  <si>
+    <t>VAddParamsBuffPercentageEffect</t>
+  </si>
+  <si>
+    <t>舰长+X</t>
+  </si>
+  <si>
+    <t>BAMembershipCount</t>
+  </si>
+  <si>
+    <t>体力消耗减少X%</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>体力消耗减少50%+X回合</t>
+  </si>
+  <si>
+    <t>BuffType</t>
+  </si>
+  <si>
+    <t>Stackable</t>
+  </si>
+  <si>
     <t>Latency</t>
   </si>
   <si>
-    <t>Condition1</t>
-  </si>
-  <si>
-    <t>Condition2</t>
-  </si>
-  <si>
-    <t>MultiplyByLayer</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>下一张牌使用两次</t>
-  </si>
-  <si>
-    <t>VDoublePlayEffect</t>
-  </si>
-  <si>
-    <t>回合结束时，参数+X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回合结束时，参数+ {AttributeDelta} </t>
-  </si>
-  <si>
-    <t>VAddEffect</t>
-  </si>
-  <si>
-    <t>OnTurnResolution</t>
-  </si>
-  <si>
-    <t>BAParameter</t>
-  </si>
-  <si>
-    <t>神采+X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神采+ {AttributeDelta} </t>
-  </si>
-  <si>
-    <t>BAShield</t>
-  </si>
-  <si>
-    <t>回合+X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回合+ {AttributeDelta} </t>
-  </si>
-  <si>
-    <t>BATurn</t>
-  </si>
-  <si>
-    <t>重抽手牌</t>
-  </si>
-  <si>
-    <t>重新抽取剩余手牌</t>
-  </si>
-  <si>
-    <t>VRedrawEffect</t>
-  </si>
-  <si>
-    <t>体力消耗削减2点</t>
-  </si>
-  <si>
-    <t>VAttributeGainPointsModifierEffect</t>
-  </si>
-  <si>
-    <t>OnPreCardApply</t>
+    <t>亲和力</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>专注</t>
+  </si>
+  <si>
+    <t>积极</t>
+  </si>
+  <si>
+    <t>好调</t>
+  </si>
+  <si>
+    <t>Persistent</t>
+  </si>
+  <si>
+    <t>体力消耗减少X点</t>
+  </si>
+  <si>
+    <t>体力消耗减少50%</t>
+  </si>
+  <si>
+    <t>OperatorType</t>
+  </si>
+  <si>
+    <t>NameOrID</t>
+  </si>
+  <si>
+    <t>TargetValue</t>
+  </si>
+  <si>
+    <t>TargetDelta</t>
+  </si>
+  <si>
+    <t>VAttributeCondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GreaterThan </t>
   </si>
   <si>
     <t>BAStamina</t>
-  </si>
-  <si>
-    <t>亲和力+X</t>
-  </si>
-  <si>
-    <t>VBuffModifyEffect</t>
-  </si>
-  <si>
-    <t>专注+X</t>
-  </si>
-  <si>
-    <t>积极+X</t>
-  </si>
-  <si>
-    <t>抽X张卡牌</t>
-  </si>
-  <si>
-    <t>VDrawCardEffect</t>
-  </si>
-  <si>
-    <t>从抽牌堆选择卡牌</t>
-  </si>
-  <si>
-    <t>VPickCardFromPileEffect</t>
-  </si>
-  <si>
-    <t>DrawPile</t>
-  </si>
-  <si>
-    <t>参数+X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">参数+ {AttributeDelta} </t>
-  </si>
-  <si>
-    <t>回合结束时，亲和力-X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回合结束时，亲和力-{AttributeDelta} </t>
-  </si>
-  <si>
-    <t>参数获得量增加X%</t>
-  </si>
-  <si>
-    <t>VAttributeGainRateModifierEffect</t>
-  </si>
-  <si>
-    <t>OnTurnBegin</t>
-  </si>
-  <si>
-    <t>手牌使用次数+X</t>
-  </si>
-  <si>
-    <t>好调+X</t>
-  </si>
-  <si>
-    <t>BuffType</t>
-  </si>
-  <si>
-    <t>Stackable</t>
-  </si>
-  <si>
-    <t>亲和力</t>
-  </si>
-  <si>
-    <t>Permanent</t>
-  </si>
-  <si>
-    <t>专注</t>
-  </si>
-  <si>
-    <t>积极</t>
-  </si>
-  <si>
-    <t>好调</t>
-  </si>
-  <si>
-    <t>Persistent</t>
-  </si>
-  <si>
-    <t>OperatorType</t>
-  </si>
-  <si>
-    <t>NameOrID</t>
-  </si>
-  <si>
-    <t>TargetValue</t>
-  </si>
-  <si>
-    <t>TargetDelta</t>
-  </si>
-  <si>
-    <t>VAttributeCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GreaterThan </t>
-  </si>
-  <si>
-    <t>BAPlayLeft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -398,27 +805,336 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -676,44 +1392,50 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
-    <col min="21" max="21" width="11" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" customWidth="1"/>
-    <col min="23" max="24" width="12.42578125" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.41666666666667" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="38.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.425" customWidth="1"/>
+    <col min="5" max="5" width="13.425" customWidth="1"/>
+    <col min="6" max="6" width="10.5666666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.425" customWidth="1"/>
+    <col min="8" max="8" width="7.14166666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.2833333333333" customWidth="1"/>
+    <col min="11" max="11" width="13.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="9.70833333333333" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.1416666666667" style="5" customWidth="1"/>
+    <col min="14" max="14" width="17.7083333333333" style="6" customWidth="1"/>
+    <col min="15" max="15" width="11" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.2833333333333" customWidth="1"/>
+    <col min="17" max="17" width="17.1416666666667" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9" style="2"/>
+    <col min="20" max="20" width="17.7083333333333" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.7083333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="17.7083333333333" style="3" customWidth="1"/>
+    <col min="24" max="24" width="12.425" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.425" style="3" customWidth="1"/>
+    <col min="26" max="26" width="12.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -735,10 +1457,10 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -747,500 +1469,831 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>11</v>
+      </c>
+      <c r="M2" s="5">
+        <v>7</v>
+      </c>
+      <c r="N2" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="H2">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5">
         <v>4</v>
       </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>11</v>
-      </c>
-      <c r="L2">
-        <v>7</v>
-      </c>
-      <c r="M2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
+      <c r="N3" s="6">
         <v>4</v>
       </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>5</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
         <v>11</v>
       </c>
-      <c r="L4">
+      <c r="M4" s="5">
         <v>15</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>3</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
         <v>11</v>
       </c>
-      <c r="L5">
+      <c r="M5" s="5">
         <v>5</v>
       </c>
-      <c r="M5">
+      <c r="N5" s="6">
         <v>5</v>
       </c>
-      <c r="N5">
+      <c r="O5" s="2">
         <v>2</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="Q5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <v>1</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>5</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>1</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
         <v>2</v>
       </c>
-      <c r="L8">
+      <c r="M8" s="5">
         <v>7</v>
       </c>
-      <c r="M8">
+      <c r="N8" s="6">
         <v>7</v>
       </c>
-      <c r="N8">
+      <c r="O8" s="2">
         <v>3</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
         <v>14</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>17</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>4</v>
       </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="Q9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
         <v>2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>2</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
         <v>6</v>
       </c>
-      <c r="L10">
+      <c r="M10" s="5">
         <v>3</v>
       </c>
-      <c r="M10">
+      <c r="N10" s="6">
         <v>4</v>
       </c>
-      <c r="N10">
+      <c r="O10" s="2">
         <v>2</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3</v>
       </c>
-      <c r="P10">
+      <c r="Q10" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2">
         <v>2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>2</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
         <v>7</v>
       </c>
-      <c r="L11">
+      <c r="M11" s="5">
         <v>2</v>
       </c>
-      <c r="M11">
+      <c r="N11" s="6">
         <v>3</v>
       </c>
-      <c r="N11">
+      <c r="O11" s="2">
         <v>2</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2</v>
       </c>
-      <c r="P11">
+      <c r="Q11" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2">
         <v>2</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>2</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <v>15</v>
       </c>
-      <c r="L12">
+      <c r="M12" s="5">
         <v>2</v>
       </c>
-      <c r="M12">
+      <c r="N12" s="6">
         <v>3</v>
       </c>
-      <c r="N12">
+      <c r="O12" s="2">
         <v>2</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2</v>
       </c>
-      <c r="P12">
+      <c r="Q12" s="3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>11</v>
+      </c>
+      <c r="M13" s="5">
+        <v>9</v>
+      </c>
+      <c r="N13" s="6">
+        <v>13</v>
+      </c>
+      <c r="O13" s="2">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>11</v>
+      </c>
+      <c r="M14" s="5">
+        <v>11</v>
+      </c>
+      <c r="N14" s="6">
+        <v>15</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>6</v>
+      </c>
+      <c r="M15" s="5">
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>18</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2">
+        <v>6</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>6</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4</v>
+      </c>
+      <c r="N17" s="6">
+        <v>5</v>
+      </c>
+      <c r="O17" s="2">
+        <v>18</v>
+      </c>
+      <c r="P17">
+        <v>0.8</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>19</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>6</v>
+      </c>
+      <c r="R18" s="2">
+        <v>21</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.425" customWidth="1"/>
+    <col min="2" max="2" width="21.1416666666667" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="7" max="8" width="10.2833333333333" customWidth="1"/>
+    <col min="9" max="9" width="15.1416666666667" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1258,19 +2311,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1278,13 +2331,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1298,19 +2351,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1324,16 +2377,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1347,16 +2400,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1370,13 +2423,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1390,25 +2443,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1416,13 +2466,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1439,13 +2489,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1462,13 +2512,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1485,13 +2535,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1505,16 +2555,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1528,16 +2578,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1551,19 +2601,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1577,19 +2627,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1603,16 +2650,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1626,13 +2673,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1644,31 +2691,171 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.425" customWidth="1"/>
+    <col min="2" max="2" width="23.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.425" customWidth="1"/>
+    <col min="4" max="5" width="16.1416666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.425" customWidth="1"/>
+    <col min="7" max="7" width="14.425" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.1416666666667" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1680,42 +2867,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1736,15 +2923,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1753,21 +2940,21 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1782,15 +2969,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1805,27 +2992,75 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.85833333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.7083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.1416666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.5666666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.1416666666667" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1840,30 +3075,30 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -1871,6 +3106,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
   <si>
     <t>ID</t>
   </si>
@@ -230,6 +230,21 @@
     <t>舰长+1，神采+4，体力消耗减少+3回合</t>
   </si>
   <si>
+    <t>再一次</t>
+  </si>
+  <si>
+    <t>KIRAKIRA</t>
+  </si>
+  <si>
+    <t>好调+5</t>
+  </si>
+  <si>
+    <t>神降临</t>
+  </si>
+  <si>
+    <t>专注+1，以后，每回合结束时，专注+2</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -386,6 +401,12 @@
     <t>体力消耗减少50%+X回合</t>
   </si>
   <si>
+    <t>回合结束时，专注+X</t>
+  </si>
+  <si>
+    <t>以后回合结束时专注+2</t>
+  </si>
+  <si>
     <t>BuffType</t>
   </si>
   <si>
@@ -417,6 +438,9 @@
   </si>
   <si>
     <t>体力消耗减少50%</t>
+  </si>
+  <si>
+    <t>回合结束时，专注+2</t>
   </si>
   <si>
     <t>OperatorType</t>
@@ -1398,12 +1422,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1816,7 +1840,7 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -2004,7 +2028,7 @@
         <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
@@ -2098,7 +2122,7 @@
         <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
@@ -2264,6 +2288,123 @@
       </c>
       <c r="T18" s="3">
         <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>15</v>
+      </c>
+      <c r="M20" s="5">
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>23</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4">
+        <v>7</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2276,12 +2417,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD20"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2311,19 +2452,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2331,13 +2472,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2351,19 +2492,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2377,16 +2518,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2400,16 +2541,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2423,13 +2564,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2443,16 +2584,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2466,13 +2607,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2489,13 +2630,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2512,13 +2653,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2535,13 +2676,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2555,16 +2696,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2578,16 +2719,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2601,19 +2742,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2627,16 +2768,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2650,16 +2791,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2673,13 +2814,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2696,16 +2837,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2719,13 +2860,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -2742,13 +2883,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2765,16 +2906,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2788,16 +2929,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2811,13 +2952,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -2826,6 +2967,55 @@
         <v>0</v>
       </c>
       <c r="I23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:9">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>-1</v>
       </c>
     </row>
@@ -2839,13 +3029,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9.425" customWidth="1"/>
     <col min="2" max="2" width="23.1416666666667" customWidth="1"/>
@@ -2867,13 +3057,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -2899,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2928,10 +3118,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2951,10 +3141,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2974,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2997,10 +3187,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3020,10 +3210,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3036,6 +3226,29 @@
       </c>
       <c r="G7">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3075,16 +3288,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3092,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F2">
         <v>20</v>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E1E356-B2A8-47A7-80F6-14DF58C5EE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -438,366 +442,36 @@
   </si>
   <si>
     <t>BAStamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">再一次 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">下一张使用的牌会使用两次 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -823,318 +497,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1392,47 +777,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.41666666666667" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="38.2833333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.425" customWidth="1"/>
-    <col min="5" max="5" width="13.425" customWidth="1"/>
-    <col min="6" max="6" width="10.5666666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.425" customWidth="1"/>
-    <col min="8" max="8" width="7.14166666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.1796875" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.2833333333333" customWidth="1"/>
-    <col min="11" max="11" width="13.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="9.70833333333333" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.1416666666667" style="5" customWidth="1"/>
-    <col min="14" max="14" width="17.7083333333333" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" style="3" customWidth="1"/>
     <col min="15" max="15" width="11" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.2833333333333" customWidth="1"/>
-    <col min="17" max="17" width="17.1416666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" customWidth="1"/>
+    <col min="17" max="17" width="17.1796875" style="3" customWidth="1"/>
     <col min="18" max="18" width="9" style="2"/>
-    <col min="20" max="20" width="17.7083333333333" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.7083333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.7265625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.7265625" style="2" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="17.7083333333333" style="3" customWidth="1"/>
-    <col min="24" max="24" width="12.425" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.425" style="3" customWidth="1"/>
-    <col min="26" max="26" width="12.2833333333333" customWidth="1"/>
+    <col min="23" max="23" width="17.7265625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="12.453125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.453125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1469,13 +853,13 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -1518,7 +902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1546,17 +930,17 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>11</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2">
         <v>7</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1584,17 +968,17 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="4">
-        <v>2</v>
-      </c>
-      <c r="M3" s="5">
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>4</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1622,17 +1006,17 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <v>11</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4">
         <v>15</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1660,13 +1044,13 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>11</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <v>5</v>
       </c>
       <c r="O5" s="2">
@@ -1679,7 +1063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1710,11 +1094,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1742,11 +1126,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1777,13 +1161,13 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="4">
-        <v>2</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8">
         <v>7</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="3">
         <v>7</v>
       </c>
       <c r="O8" s="2">
@@ -1805,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1833,13 +1217,13 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>17</v>
       </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
         <v>1</v>
       </c>
       <c r="O9" s="2">
@@ -1852,7 +1236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1880,13 +1264,13 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>6</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="3">
         <v>4</v>
       </c>
       <c r="O10" s="2">
@@ -1899,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1927,13 +1311,13 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>7</v>
       </c>
-      <c r="M11" s="5">
-        <v>2</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3">
         <v>3</v>
       </c>
       <c r="O11" s="2">
@@ -1946,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1974,13 +1358,13 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <v>15</v>
       </c>
-      <c r="M12" s="5">
-        <v>2</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
         <v>3</v>
       </c>
       <c r="O12" s="2">
@@ -1993,7 +1377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2021,13 +1405,13 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <v>11</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13">
         <v>9</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="3">
         <v>13</v>
       </c>
       <c r="O13" s="2">
@@ -2040,7 +1424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2068,13 +1452,13 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <v>11</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14">
         <v>11</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="3">
         <v>15</v>
       </c>
       <c r="O14" s="2">
@@ -2087,7 +1471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2115,17 +1499,17 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <v>6</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15">
         <v>6</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2153,17 +1537,17 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>18</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16">
         <v>1.4</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="3">
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2191,13 +1575,13 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17">
         <v>4</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="3">
         <v>5</v>
       </c>
       <c r="O17" s="2">
@@ -2207,7 +1591,7 @@
         <v>0.8</v>
       </c>
       <c r="Q17" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2238,13 +1622,13 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <v>19</v>
       </c>
-      <c r="M18" s="5">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
         <v>1</v>
       </c>
       <c r="O18" s="2">
@@ -2266,34 +1650,63 @@
         <v>4</v>
       </c>
     </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD20"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.425" customWidth="1"/>
-    <col min="2" max="2" width="21.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="8" width="10.2833333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.1416666666667" customWidth="1"/>
+    <col min="7" max="8" width="10.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2831,31 +2244,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.425" customWidth="1"/>
-    <col min="2" max="2" width="23.1416666666667" customWidth="1"/>
-    <col min="3" max="3" width="14.425" customWidth="1"/>
-    <col min="4" max="5" width="16.1416666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.425" customWidth="1"/>
-    <col min="7" max="7" width="14.425" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.1416666666667" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2894,7 +2305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2923,7 +2334,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2946,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2969,7 +2380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2992,7 +2403,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3015,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3040,27 +2451,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="4.85833333333333" customWidth="1"/>
-    <col min="2" max="2" width="22.7083333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.1416666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.5666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3087,7 +2496,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3106,7 +2515,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="24750" windowHeight="10480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -122,6 +122,9 @@
     <t>Common</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>Stamina</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
     <t>神采+4</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>闪耀</t>
   </si>
   <si>
@@ -227,7 +233,7 @@
     <t>欢迎上舰</t>
   </si>
   <si>
-    <t>舰长+1，神采+4，体力消耗减少+3回合</t>
+    <t>舰长+1，神采+4，体力消耗减少+2回合</t>
   </si>
   <si>
     <t>再一次</t>
@@ -245,6 +251,30 @@
     <t>专注+1，以后，每回合结束时，专注+2</t>
   </si>
   <si>
+    <t>试麦</t>
+  </si>
+  <si>
+    <t>在有好调的状态下可使用，参数+24</t>
+  </si>
+  <si>
+    <t>全心全力</t>
+  </si>
+  <si>
+    <t>好调+4，专注+5，体力消耗减少+2回合</t>
+  </si>
+  <si>
+    <t>红温</t>
+  </si>
+  <si>
+    <t>体力消耗增加+2回合，参数+30，神采+5</t>
+  </si>
+  <si>
+    <t>美丽动人</t>
+  </si>
+  <si>
+    <t>亲和力+2，以后，每当使用M卡时，亲和力+1</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -404,7 +434,28 @@
     <t>回合结束时，专注+X</t>
   </si>
   <si>
-    <t>以后回合结束时专注+2</t>
+    <t>以后回合结束时专注+X</t>
+  </si>
+  <si>
+    <t>在有好调时，参数+X</t>
+  </si>
+  <si>
+    <t>体力消耗增加X%</t>
+  </si>
+  <si>
+    <t>体力消耗增加50%+X回合</t>
+  </si>
+  <si>
+    <t>每当使用M卡时，亲和力+X</t>
+  </si>
+  <si>
+    <t>OnCardPlayed</t>
+  </si>
+  <si>
+    <t>每当使用M卡亲和力+1</t>
+  </si>
+  <si>
+    <t>每当使用M卡时，亲和力+1</t>
   </si>
   <si>
     <t>BuffType</t>
@@ -443,6 +494,9 @@
     <t>回合结束时，专注+2</t>
   </si>
   <si>
+    <t>体力消耗增加50%</t>
+  </si>
+  <si>
     <t>OperatorType</t>
   </si>
   <si>
@@ -455,13 +509,19 @@
     <t>TargetDelta</t>
   </si>
   <si>
-    <t>VAttributeCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GreaterThan </t>
-  </si>
-  <si>
-    <t>BAStamina</t>
+    <t>有好调时</t>
+  </si>
+  <si>
+    <t>VBuffLayerCondition</t>
+  </si>
+  <si>
+    <t>GreaterThan</t>
+  </si>
+  <si>
+    <t>使用M卡时</t>
+  </si>
+  <si>
+    <t>VCardTypeCondition</t>
   </si>
 </sst>
 </file>
@@ -1422,19 +1482,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="C27 N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.41666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="38.2833333333333" customWidth="1"/>
+    <col min="3" max="3" width="44.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="10.425" customWidth="1"/>
     <col min="5" max="5" width="13.425" customWidth="1"/>
     <col min="6" max="6" width="10.5666666666667" customWidth="1"/>
@@ -1555,8 +1615,11 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
@@ -1585,16 +1648,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1623,16 +1689,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2">
         <v>5</v>
@@ -1661,16 +1730,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2">
         <v>3</v>
@@ -1708,16 +1780,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1743,16 +1818,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2">
         <v>5</v>
@@ -1775,16 +1853,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1834,16 +1915,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1881,16 +1965,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2">
         <v>2</v>
@@ -1928,16 +2015,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
@@ -1975,16 +2065,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -2022,16 +2115,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2">
         <v>6</v>
@@ -2069,16 +2165,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2">
         <v>5</v>
@@ -2116,16 +2215,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2">
         <v>5</v>
@@ -2154,16 +2256,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16" s="2">
         <v>4</v>
@@ -2192,16 +2297,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17" s="2">
         <v>6</v>
@@ -2239,16 +2347,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18" s="2">
         <v>3</v>
@@ -2284,10 +2395,10 @@
         <v>21</v>
       </c>
       <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18" s="3">
         <v>3</v>
-      </c>
-      <c r="T18" s="3">
-        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2295,16 +2406,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19" s="2">
         <v>6</v>
@@ -2327,16 +2441,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20" s="2">
         <v>4</v>
@@ -2365,16 +2482,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21" s="2">
         <v>5</v>
@@ -2405,6 +2525,215 @@
       </c>
       <c r="Q21" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>24</v>
+      </c>
+      <c r="M22" s="5">
+        <v>24</v>
+      </c>
+      <c r="N22" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="2">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>15</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23" s="3">
+        <v>5</v>
+      </c>
+      <c r="O23" s="2">
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>6</v>
+      </c>
+      <c r="R23" s="2">
+        <v>21</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4">
+        <v>26</v>
+      </c>
+      <c r="M24" s="5">
+        <v>2</v>
+      </c>
+      <c r="N24" s="6">
+        <v>2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>11</v>
+      </c>
+      <c r="P24">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>42</v>
+      </c>
+      <c r="R24" s="2">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="2">
+        <v>4</v>
+      </c>
+      <c r="I25" s="3">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
+        <v>6</v>
+      </c>
+      <c r="M25" s="5">
+        <v>2</v>
+      </c>
+      <c r="N25" s="6">
+        <v>4</v>
+      </c>
+      <c r="O25" s="2">
+        <v>28</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2417,18 +2746,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD25"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="$A29:$XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.425" customWidth="1"/>
-    <col min="2" max="2" width="21.1416666666667" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
@@ -2452,19 +2781,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2472,16 +2801,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -2492,23 +2818,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G3"/>
       <c r="I3">
         <v>1</v>
       </c>
@@ -2518,19 +2842,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -2541,19 +2862,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -2564,16 +2882,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -2584,19 +2899,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2607,18 +2919,15 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="G8">
         <v>0</v>
       </c>
       <c r="I8">
@@ -2630,19 +2939,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -2653,19 +2959,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -2676,16 +2979,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -2696,19 +2996,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -2719,19 +3016,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -2742,23 +3036,21 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
         <v>106</v>
       </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" t="s">
-        <v>96</v>
-      </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G14"/>
       <c r="I14">
         <v>-1</v>
       </c>
@@ -2768,19 +3060,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -2791,19 +3080,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -2814,19 +3100,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>3</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -2837,19 +3120,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2860,19 +3140,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>4</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -2883,18 +3160,15 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="G20">
         <v>0</v>
       </c>
       <c r="I20">
@@ -2906,19 +3180,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -2929,19 +3200,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -2952,19 +3220,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E23">
         <v>5</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -2975,23 +3240,21 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G24"/>
       <c r="I24">
         <v>-1</v>
       </c>
@@ -3001,21 +3264,127 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E25">
         <v>6</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="I25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:9">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="I30">
         <v>-1</v>
       </c>
     </row>
@@ -3029,16 +3398,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.425" customWidth="1"/>
-    <col min="2" max="2" width="23.1416666666667" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="14.425" customWidth="1"/>
     <col min="4" max="5" width="16.1416666666667" customWidth="1"/>
     <col min="6" max="6" width="12.425" customWidth="1"/>
@@ -3057,13 +3426,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -3089,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3118,10 +3487,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3141,10 +3510,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3164,10 +3533,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3187,10 +3556,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3210,10 +3579,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3233,10 +3602,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3249,6 +3618,52 @@
       </c>
       <c r="G8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3261,13 +3676,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D8" sqref="D2 D3 D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.85833333333333" customWidth="1"/>
     <col min="2" max="2" width="22.7083333333333" customWidth="1"/>
@@ -3275,6 +3690,7 @@
     <col min="4" max="4" width="15.5666666666667" customWidth="1"/>
     <col min="5" max="5" width="16.1416666666667" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="11.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3288,33 +3704,53 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>143</v>
+        <v>161</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2392329D-5653-4239-8B07-65461FB2BB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480" activeTab="3"/>
+    <workbookView xWindow="25490" yWindow="1820" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -527,361 +531,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -907,318 +575,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1476,47 +855,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="C27 N29"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.41666666666667" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="44.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.425" customWidth="1"/>
-    <col min="5" max="5" width="13.425" customWidth="1"/>
-    <col min="6" max="6" width="10.5666666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.425" customWidth="1"/>
-    <col min="8" max="8" width="7.14166666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.2833333333333" customWidth="1"/>
-    <col min="11" max="11" width="13.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="9.70833333333333" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.1416666666667" style="5" customWidth="1"/>
-    <col min="14" max="14" width="17.7083333333333" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="11" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.2833333333333" customWidth="1"/>
-    <col min="17" max="17" width="17.1416666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" style="3" customWidth="1"/>
     <col min="18" max="18" width="9" style="2"/>
-    <col min="20" max="20" width="17.7083333333333" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.7083333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="2" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="17.7083333333333" style="3" customWidth="1"/>
-    <col min="24" max="24" width="12.425" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.425" style="3" customWidth="1"/>
-    <col min="26" max="26" width="12.2833333333333" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1553,13 +931,13 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -1602,7 +980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1633,17 +1011,17 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>11</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2">
         <v>7</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1674,17 +1052,17 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="4">
-        <v>2</v>
-      </c>
-      <c r="M3" s="5">
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>4</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1715,17 +1093,17 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <v>11</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4">
         <v>15</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1756,13 +1134,13 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>11</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <v>5</v>
       </c>
       <c r="O5" s="2">
@@ -1775,7 +1153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1809,11 +1187,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1844,11 +1222,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1882,13 +1260,13 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="4">
-        <v>2</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8">
         <v>7</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="3">
         <v>7</v>
       </c>
       <c r="O8" s="2">
@@ -1910,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1941,13 +1319,13 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>17</v>
       </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
         <v>1</v>
       </c>
       <c r="O9" s="2">
@@ -1960,7 +1338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1991,13 +1369,13 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>6</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="3">
         <v>4</v>
       </c>
       <c r="O10" s="2">
@@ -2010,7 +1388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2041,13 +1419,13 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>7</v>
       </c>
-      <c r="M11" s="5">
-        <v>2</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3">
         <v>3</v>
       </c>
       <c r="O11" s="2">
@@ -2060,7 +1438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2091,13 +1469,13 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <v>15</v>
       </c>
-      <c r="M12" s="5">
-        <v>2</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
         <v>3</v>
       </c>
       <c r="O12" s="2">
@@ -2110,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2141,13 +1519,13 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <v>11</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13">
         <v>9</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="3">
         <v>13</v>
       </c>
       <c r="O13" s="2">
@@ -2160,7 +1538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2191,13 +1569,13 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <v>11</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14">
         <v>11</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="3">
         <v>15</v>
       </c>
       <c r="O14" s="2">
@@ -2210,7 +1588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2241,17 +1619,17 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <v>6</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15">
         <v>6</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2282,17 +1660,17 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>18</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16">
         <v>1.4</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="3">
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2323,13 +1701,13 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17">
         <v>4</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="3">
         <v>5</v>
       </c>
       <c r="O17" s="2">
@@ -2339,7 +1717,7 @@
         <v>0.8</v>
       </c>
       <c r="Q17" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2373,13 +1751,13 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <v>19</v>
       </c>
-      <c r="M18" s="5">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
         <v>1</v>
       </c>
       <c r="O18" s="2">
@@ -2401,7 +1779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2432,11 +1810,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2467,17 +1845,17 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="2">
         <v>15</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20">
         <v>5</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2508,16 +1886,16 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>23</v>
       </c>
-      <c r="M21" s="5">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
         <v>7</v>
       </c>
       <c r="P21">
@@ -2527,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2558,13 +1936,13 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="2">
         <v>24</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22">
         <v>24</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="3">
         <v>30</v>
       </c>
     </row>
@@ -2658,13 +2036,13 @@
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="2">
         <v>26</v>
       </c>
-      <c r="M24" s="5">
-        <v>2</v>
-      </c>
-      <c r="N24" s="6">
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24" s="3">
         <v>2</v>
       </c>
       <c r="O24" s="2">
@@ -2686,7 +2064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2717,13 +2095,13 @@
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="2">
         <v>6</v>
       </c>
-      <c r="M25" s="5">
-        <v>2</v>
-      </c>
-      <c r="N25" s="6">
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" s="3">
         <v>4</v>
       </c>
       <c r="O25" s="2">
@@ -2738,32 +2116,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="$A29:$XFD29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.425" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="8" width="10.2833333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.1416666666667" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2832,7 +2207,6 @@
       <c r="F3" t="s">
         <v>92</v>
       </c>
-      <c r="G3"/>
       <c r="I3">
         <v>1</v>
       </c>
@@ -3050,7 +2424,6 @@
       <c r="F14" t="s">
         <v>92</v>
       </c>
-      <c r="G14"/>
       <c r="I14">
         <v>-1</v>
       </c>
@@ -3235,7 +2608,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:9">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3254,7 +2627,6 @@
       <c r="F24" t="s">
         <v>92</v>
       </c>
-      <c r="G24"/>
       <c r="I24">
         <v>-1</v>
       </c>
@@ -3322,7 +2694,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:9">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3356,7 +2728,7 @@
         <v>106</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
         <v>139</v>
@@ -3390,31 +2762,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.425" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="14.425" customWidth="1"/>
-    <col min="4" max="5" width="16.1416666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.425" customWidth="1"/>
-    <col min="7" max="7" width="14.425" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.1416666666667" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3453,7 +2823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3482,7 +2852,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3505,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3528,7 +2898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3551,7 +2921,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3574,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3597,7 +2967,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3620,7 +2990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3643,7 +3013,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3668,29 +3038,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D2 D3 D8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85833333333333" customWidth="1"/>
-    <col min="2" max="2" width="22.7083333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.1416666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.5666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.0916666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3716,7 +3084,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3736,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3749,13 +3117,12 @@
       <c r="D3" t="s">
         <v>161</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480" activeTab="3"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -273,6 +273,36 @@
   </si>
   <si>
     <t>亲和力+2，以后，每当使用M卡时，亲和力+1</t>
+  </si>
+  <si>
+    <t>小巧思</t>
+  </si>
+  <si>
+    <t>亲和力+5，神采+1</t>
+  </si>
+  <si>
+    <t>冲刺！</t>
+  </si>
+  <si>
+    <t>好调+3，参数+8</t>
+  </si>
+  <si>
+    <t>闭眼</t>
+  </si>
+  <si>
+    <t>专注+3</t>
+  </si>
+  <si>
+    <t>小憩</t>
+  </si>
+  <si>
+    <t>专注+3，神采+4</t>
+  </si>
+  <si>
+    <t>休息完毕</t>
+  </si>
+  <si>
+    <t>好调+3，参数+9，卡牌使用次数+1</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -1482,12 +1512,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="C27 N29"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1498,7 +1528,7 @@
     <col min="4" max="4" width="10.425" customWidth="1"/>
     <col min="5" max="5" width="13.425" customWidth="1"/>
     <col min="6" max="6" width="10.5666666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.425" customWidth="1"/>
+    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
     <col min="8" max="8" width="7.14166666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.2833333333333" customWidth="1"/>
@@ -2736,6 +2766,259 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>6</v>
+      </c>
+      <c r="M26" s="5">
+        <v>5</v>
+      </c>
+      <c r="N26" s="6">
+        <v>7</v>
+      </c>
+      <c r="O26" s="2">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="2">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>15</v>
+      </c>
+      <c r="M27" s="5">
+        <v>3</v>
+      </c>
+      <c r="N27" s="6">
+        <v>4</v>
+      </c>
+      <c r="O27" s="2">
+        <v>11</v>
+      </c>
+      <c r="P27">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>7</v>
+      </c>
+      <c r="M28" s="5">
+        <v>3</v>
+      </c>
+      <c r="N28" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>7</v>
+      </c>
+      <c r="M29" s="5">
+        <v>3</v>
+      </c>
+      <c r="N29" s="6">
+        <v>4</v>
+      </c>
+      <c r="O29" s="2">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4">
+        <v>15</v>
+      </c>
+      <c r="M30" s="5">
+        <v>3</v>
+      </c>
+      <c r="N30" s="6">
+        <v>4</v>
+      </c>
+      <c r="O30" s="2">
+        <v>11</v>
+      </c>
+      <c r="P30">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>14</v>
+      </c>
+      <c r="R30" s="2">
+        <v>14</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2748,10 +3031,10 @@
   <sheetPr/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="$A29:$XFD29"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="$A31:$XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2781,19 +3064,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2801,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -2818,21 +3101,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3"/>
+        <v>102</v>
+      </c>
       <c r="I3">
         <v>1</v>
       </c>
@@ -2842,16 +3124,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -2862,16 +3144,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -2882,13 +3164,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -2899,16 +3181,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2919,13 +3201,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2939,13 +3221,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2959,13 +3241,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2979,13 +3261,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -2996,16 +3278,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -3016,16 +3298,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -3036,21 +3318,20 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
-      </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14"/>
+        <v>102</v>
+      </c>
       <c r="I14">
         <v>-1</v>
       </c>
@@ -3060,16 +3341,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -3080,16 +3361,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -3100,13 +3381,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -3120,16 +3401,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3140,13 +3421,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -3160,13 +3441,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3180,16 +3461,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -3200,16 +3481,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -3220,13 +3501,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -3240,19 +3521,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G24"/>
       <c r="I24">
@@ -3264,13 +3545,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -3284,16 +3565,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3307,16 +3588,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -3327,13 +3608,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -3347,19 +3628,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3373,13 +3654,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -3401,7 +3682,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A12" sqref="A11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3426,13 +3707,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -3458,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3487,10 +3768,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3510,10 +3791,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3533,10 +3814,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3556,10 +3837,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3579,10 +3860,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3602,10 +3883,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3625,10 +3906,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3648,10 +3929,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3678,7 +3959,7 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D8" sqref="D2 D3 D8"/>
     </sheetView>
   </sheetViews>
@@ -3704,16 +3985,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3721,13 +4002,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -3741,13 +4022,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2392329D-5653-4239-8B07-65461FB2BB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F373FA-93FF-46F8-86E6-D18EAF0F0501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="1820" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -864,8 +864,8 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2124,9 +2124,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3046,7 +3046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="176">
   <si>
     <t>ID</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>好调+3，参数+9，卡牌使用次数+1</t>
+  </si>
+  <si>
+    <t>进入状态</t>
+  </si>
+  <si>
+    <t>专注+4，卡牌使用次数+1</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -1512,12 +1518,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3019,6 +3025,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4">
+        <v>7</v>
+      </c>
+      <c r="M31" s="5">
+        <v>4</v>
+      </c>
+      <c r="N31" s="6">
+        <v>6</v>
+      </c>
+      <c r="O31" s="2">
+        <v>14</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -3064,19 +3123,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3084,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -3101,19 +3160,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3124,16 +3183,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -3144,16 +3203,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -3164,13 +3223,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -3181,16 +3240,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -3201,13 +3260,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3221,13 +3280,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3241,13 +3300,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
         <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>116</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3261,13 +3320,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -3278,16 +3337,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -3298,16 +3357,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -3318,19 +3377,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -3341,16 +3400,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -3361,16 +3420,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -3381,13 +3440,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -3401,16 +3460,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3421,13 +3480,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -3441,13 +3500,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3461,16 +3520,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -3481,16 +3540,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -3501,13 +3560,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -3521,19 +3580,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G24"/>
       <c r="I24">
@@ -3545,13 +3604,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -3565,16 +3624,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3588,16 +3647,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -3608,13 +3667,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -3628,19 +3687,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3654,13 +3713,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -3707,13 +3766,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -3739,10 +3798,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3768,10 +3827,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3791,10 +3850,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
         <v>158</v>
-      </c>
-      <c r="C4" t="s">
-        <v>156</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3814,10 +3873,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3837,10 +3896,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3860,10 +3919,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
         <v>162</v>
-      </c>
-      <c r="C7" t="s">
-        <v>160</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3883,10 +3942,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3906,10 +3965,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3929,10 +3988,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3985,16 +4044,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4002,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -4022,13 +4081,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
         <v>173</v>
-      </c>
-      <c r="D3" t="s">
-        <v>171</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="24750" windowHeight="10480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="182">
   <si>
     <t>ID</t>
   </si>
@@ -311,6 +311,12 @@
     <t>专注+4，卡牌使用次数+1</t>
   </si>
   <si>
+    <t>自信</t>
+  </si>
+  <si>
+    <t>好调+5，下一回合开始时，参数+18，下下回合开始时，参数+24</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -344,7 +350,7 @@
     <t>BAParameter</t>
   </si>
   <si>
-    <t>OnTurnResolution</t>
+    <t>OnTurnEndBuffApply</t>
   </si>
   <si>
     <t>神采+X</t>
@@ -492,6 +498,18 @@
   </si>
   <si>
     <t>每当使用M卡时，亲和力+1</t>
+  </si>
+  <si>
+    <t>回合开始时，参数+X</t>
+  </si>
+  <si>
+    <t>OnTurnBeginBuffApply</t>
+  </si>
+  <si>
+    <t>下一回合开始时，参数+18</t>
+  </si>
+  <si>
+    <t>下下回合开始时，参数+24</t>
   </si>
   <si>
     <t>BuffType</t>
@@ -1518,12 +1536,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3078,6 +3096,65 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+      <c r="I32" s="3">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4">
+        <v>15</v>
+      </c>
+      <c r="M32" s="5">
+        <v>5</v>
+      </c>
+      <c r="N32" s="6">
+        <v>7</v>
+      </c>
+      <c r="O32" s="2">
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2">
+        <v>31</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -3088,10 +3165,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A31" sqref="$A31:$XFD31"/>
     </sheetView>
@@ -3103,7 +3180,7 @@
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="6" max="6" width="18.9166666666667" customWidth="1"/>
     <col min="7" max="8" width="10.2833333333333" customWidth="1"/>
     <col min="9" max="9" width="15.1416666666667" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
@@ -3123,19 +3200,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3143,13 +3220,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -3160,19 +3237,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3183,16 +3260,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -3203,16 +3280,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -3223,13 +3300,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -3240,16 +3317,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -3260,13 +3337,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3280,13 +3357,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3300,13 +3377,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
         <v>120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" t="s">
-        <v>118</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3320,13 +3397,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -3337,16 +3414,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -3357,16 +3434,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -3377,19 +3454,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -3400,16 +3477,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -3420,16 +3497,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -3440,13 +3517,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -3460,16 +3537,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3480,13 +3557,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -3500,13 +3577,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3520,16 +3597,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -3540,16 +3617,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -3560,13 +3637,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -3580,19 +3657,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G24"/>
       <c r="I24">
@@ -3604,13 +3681,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -3624,16 +3701,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3647,16 +3724,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -3667,13 +3744,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -3687,19 +3764,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3713,18 +3790,81 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E30">
         <v>8</v>
       </c>
       <c r="I30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:9">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:9">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="I33">
         <v>-1</v>
       </c>
     </row>
@@ -3738,10 +3878,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A11:G12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3766,13 +3906,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -3798,10 +3938,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3827,10 +3967,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3850,10 +3990,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3873,10 +4013,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3896,10 +4036,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3919,10 +4059,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3942,10 +4082,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3965,10 +4105,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3988,10 +4128,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4004,6 +4144,52 @@
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4019,7 +4205,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D2 D3 D8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -4044,16 +4230,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4061,13 +4247,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -4076,20 +4262,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB0A762-4BD8-435E-B398-DF6A00A0D8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -557,361 +561,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -937,318 +605,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1506,47 +885,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.41666666666667" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="44.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.425" customWidth="1"/>
-    <col min="5" max="5" width="13.425" customWidth="1"/>
-    <col min="6" max="6" width="10.5666666666667" customWidth="1"/>
-    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="7.14166666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.2833333333333" customWidth="1"/>
-    <col min="11" max="11" width="13.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="9.70833333333333" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.1416666666667" style="5" customWidth="1"/>
-    <col min="14" max="14" width="17.7083333333333" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="11" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.2833333333333" customWidth="1"/>
-    <col min="17" max="17" width="17.1416666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" style="3" customWidth="1"/>
     <col min="18" max="18" width="9" style="2"/>
-    <col min="20" max="20" width="17.7083333333333" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.7083333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="2" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="17.7083333333333" style="3" customWidth="1"/>
-    <col min="24" max="24" width="12.425" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.425" style="3" customWidth="1"/>
-    <col min="26" max="26" width="12.2833333333333" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1583,13 +961,13 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -1632,7 +1010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1663,17 +1041,17 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>11</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2">
         <v>7</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1704,17 +1082,17 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="4">
-        <v>2</v>
-      </c>
-      <c r="M3" s="5">
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>4</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1745,17 +1123,17 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <v>11</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4">
         <v>15</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1786,13 +1164,13 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>11</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <v>5</v>
       </c>
       <c r="O5" s="2">
@@ -1805,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1839,11 +1217,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1874,11 +1252,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1912,13 +1290,13 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="4">
-        <v>2</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8">
         <v>7</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="3">
         <v>7</v>
       </c>
       <c r="O8" s="2">
@@ -1940,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1971,13 +1349,13 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>17</v>
       </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
         <v>1</v>
       </c>
       <c r="O9" s="2">
@@ -1990,7 +1368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2021,13 +1399,13 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>6</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="3">
         <v>4</v>
       </c>
       <c r="O10" s="2">
@@ -2040,7 +1418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2071,13 +1449,13 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>7</v>
       </c>
-      <c r="M11" s="5">
-        <v>2</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3">
         <v>3</v>
       </c>
       <c r="O11" s="2">
@@ -2090,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2121,13 +1499,13 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <v>15</v>
       </c>
-      <c r="M12" s="5">
-        <v>2</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
         <v>3</v>
       </c>
       <c r="O12" s="2">
@@ -2140,7 +1518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2171,13 +1549,13 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <v>11</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13">
         <v>9</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="3">
         <v>13</v>
       </c>
       <c r="O13" s="2">
@@ -2190,7 +1568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2221,13 +1599,13 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <v>11</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14">
         <v>11</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="3">
         <v>15</v>
       </c>
       <c r="O14" s="2">
@@ -2240,7 +1618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2271,17 +1649,17 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <v>6</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15">
         <v>6</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2312,17 +1690,17 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>18</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16">
         <v>1.4</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="3">
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2353,13 +1731,13 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17">
         <v>4</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="3">
         <v>5</v>
       </c>
       <c r="O17" s="2">
@@ -2369,7 +1747,7 @@
         <v>0.8</v>
       </c>
       <c r="Q17" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2403,13 +1781,13 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <v>19</v>
       </c>
-      <c r="M18" s="5">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
         <v>1</v>
       </c>
       <c r="O18" s="2">
@@ -2431,7 +1809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2462,11 +1840,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2497,17 +1875,17 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="2">
         <v>15</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20">
         <v>5</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2538,16 +1916,16 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>23</v>
       </c>
-      <c r="M21" s="5">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
         <v>7</v>
       </c>
       <c r="P21">
@@ -2557,7 +1935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2588,13 +1966,13 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="2">
         <v>24</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22">
         <v>24</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="3">
         <v>30</v>
       </c>
     </row>
@@ -2688,13 +2066,13 @@
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="2">
         <v>26</v>
       </c>
-      <c r="M24" s="5">
-        <v>2</v>
-      </c>
-      <c r="N24" s="6">
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24" s="3">
         <v>2</v>
       </c>
       <c r="O24" s="2">
@@ -2716,7 +2094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2747,13 +2125,13 @@
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="2">
         <v>6</v>
       </c>
-      <c r="M25" s="5">
-        <v>2</v>
-      </c>
-      <c r="N25" s="6">
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" s="3">
         <v>4</v>
       </c>
       <c r="O25" s="2">
@@ -2766,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2797,13 +2175,13 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="2">
         <v>6</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26">
         <v>5</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="3">
         <v>7</v>
       </c>
       <c r="O26" s="2">
@@ -2816,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2847,13 +2225,13 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="2">
         <v>15</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="3">
         <v>4</v>
       </c>
       <c r="O27" s="2">
@@ -2866,7 +2244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2897,17 +2275,17 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="2">
         <v>7</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28">
         <v>3</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2938,13 +2316,13 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="2">
         <v>7</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29">
         <v>3</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="3">
         <v>4</v>
       </c>
       <c r="O29" s="2">
@@ -2991,13 +2369,13 @@
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="2">
         <v>15</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30">
         <v>3</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="3">
         <v>4</v>
       </c>
       <c r="O30" s="2">
@@ -3021,32 +2399,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="$A31:$XFD31"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.425" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="8" width="10.2833333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.1416666666667" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3516,7 +2891,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:9">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3535,7 +2910,6 @@
       <c r="F24" t="s">
         <v>102</v>
       </c>
-      <c r="G24"/>
       <c r="I24">
         <v>-1</v>
       </c>
@@ -3603,7 +2977,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:9">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3671,31 +3045,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A11:G12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.425" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="14.425" customWidth="1"/>
-    <col min="4" max="5" width="16.1416666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.425" customWidth="1"/>
-    <col min="7" max="7" width="14.425" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.1416666666667" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3734,7 +3106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3763,7 +3135,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3786,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3809,7 +3181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3832,7 +3204,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3855,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3878,7 +3250,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3901,7 +3273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3924,7 +3296,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3949,29 +3321,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D8" sqref="D2 D3 D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85833333333333" customWidth="1"/>
-    <col min="2" max="2" width="22.7083333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.1416666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.5666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.0916666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3997,7 +3367,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4017,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4036,7 +3406,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -311,12 +311,33 @@
     <t>专注+4，卡牌使用次数+1</t>
   </si>
   <si>
-    <t>自信</t>
-  </si>
-  <si>
     <t>好调+5，下一回合开始时，参数+18，下下回合开始时，参数+24</t>
   </si>
   <si>
+    <t>躺</t>
+  </si>
+  <si>
+    <t>神采+6</t>
+  </si>
+  <si>
+    <t>惊喜</t>
+  </si>
+  <si>
+    <t>舰长+1，参数+4，卡牌使用次数+1</t>
+  </si>
+  <si>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>流水+30，神采+3，体力消耗减少50%+2回合</t>
+  </si>
+  <si>
+    <t>宣传</t>
+  </si>
+  <si>
+    <t>同接+50，神采+2</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -510,6 +531,18 @@
   </si>
   <si>
     <t>下下回合开始时，参数+24</t>
+  </si>
+  <si>
+    <t>流水+X</t>
+  </si>
+  <si>
+    <t>BARevenue</t>
+  </si>
+  <si>
+    <t>同接+X</t>
+  </si>
+  <si>
+    <t>BAViewerCount</t>
   </si>
   <si>
     <t>BuffType</t>
@@ -1536,12 +1569,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3101,10 +3134,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
         <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
       </c>
       <c r="D32" t="s">
         <v>41</v>
@@ -3153,6 +3186,215 @@
       </c>
       <c r="T32" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>2</v>
+      </c>
+      <c r="M33" s="5">
+        <v>6</v>
+      </c>
+      <c r="N33" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="2">
+        <v>6</v>
+      </c>
+      <c r="I34" s="3">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4">
+        <v>19</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1</v>
+      </c>
+      <c r="N34" s="6">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>11</v>
+      </c>
+      <c r="P34">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>7</v>
+      </c>
+      <c r="R34" s="2">
+        <v>14</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="2">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4">
+        <v>32</v>
+      </c>
+      <c r="M35" s="5">
+        <v>30</v>
+      </c>
+      <c r="N35" s="6">
+        <v>30</v>
+      </c>
+      <c r="O35" s="2">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>5</v>
+      </c>
+      <c r="R35" s="2">
+        <v>21</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4</v>
+      </c>
+      <c r="I36" s="3">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4">
+        <v>33</v>
+      </c>
+      <c r="M36" s="5">
+        <v>50</v>
+      </c>
+      <c r="N36" s="6">
+        <v>70</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3165,12 +3407,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="$A31:$XFD31"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3200,19 +3442,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3220,13 +3462,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -3237,19 +3479,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3260,16 +3502,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -3280,16 +3522,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
         <v>111</v>
       </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -3300,13 +3542,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -3317,16 +3559,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -3337,13 +3579,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3357,13 +3599,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3377,13 +3619,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3397,13 +3639,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -3414,16 +3656,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -3434,16 +3676,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -3454,19 +3696,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -3477,16 +3719,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -3497,16 +3739,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -3517,13 +3759,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -3537,16 +3779,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3557,13 +3799,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -3577,13 +3819,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3597,16 +3839,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -3617,16 +3859,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -3637,13 +3879,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -3657,19 +3899,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G24"/>
       <c r="I24">
@@ -3681,13 +3923,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -3701,16 +3943,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3724,16 +3966,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -3744,13 +3986,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -3764,19 +4006,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3790,13 +4032,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -3810,19 +4052,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -3833,13 +4075,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E32">
         <v>9</v>
@@ -3853,18 +4095,58 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="I33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35">
         <v>-1</v>
       </c>
     </row>
@@ -3881,7 +4163,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3906,13 +4188,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -3938,10 +4220,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3967,10 +4249,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3990,10 +4272,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4013,10 +4295,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4036,10 +4318,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4059,10 +4341,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4082,10 +4364,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4105,10 +4387,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4128,10 +4410,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4151,16 +4433,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>29</v>
@@ -4174,16 +4456,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>29</v>
@@ -4230,16 +4512,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4247,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -4267,13 +4549,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>

--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880D011E-E76C-46B3-A412-BEB0B354738A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView xWindow="25490" yWindow="1820" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -614,361 +618,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -994,318 +662,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1563,47 +942,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.41666666666667" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="44.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.425" customWidth="1"/>
-    <col min="5" max="5" width="13.425" customWidth="1"/>
-    <col min="6" max="6" width="10.5666666666667" customWidth="1"/>
-    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="7.14166666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.2833333333333" customWidth="1"/>
-    <col min="11" max="11" width="13.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="9.70833333333333" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.1416666666667" style="5" customWidth="1"/>
-    <col min="14" max="14" width="17.7083333333333" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="11" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.2833333333333" customWidth="1"/>
-    <col min="17" max="17" width="17.1416666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" style="3" customWidth="1"/>
     <col min="18" max="18" width="9" style="2"/>
-    <col min="20" max="20" width="17.7083333333333" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.7083333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="2" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="17.7083333333333" style="3" customWidth="1"/>
-    <col min="24" max="24" width="12.425" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.425" style="3" customWidth="1"/>
-    <col min="26" max="26" width="12.2833333333333" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1640,13 +1018,13 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -1689,7 +1067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1720,17 +1098,17 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>11</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2">
         <v>7</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1761,17 +1139,17 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="4">
-        <v>2</v>
-      </c>
-      <c r="M3" s="5">
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>4</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1802,17 +1180,17 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <v>11</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4">
         <v>15</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1843,13 +1221,13 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>11</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <v>5</v>
       </c>
       <c r="O5" s="2">
@@ -1862,7 +1240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1896,11 +1274,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1931,11 +1309,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1969,13 +1347,13 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="4">
-        <v>2</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8">
         <v>7</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="3">
         <v>7</v>
       </c>
       <c r="O8" s="2">
@@ -1997,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2028,13 +1406,13 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>17</v>
       </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
         <v>1</v>
       </c>
       <c r="O9" s="2">
@@ -2047,7 +1425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2078,13 +1456,13 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>6</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="3">
         <v>4</v>
       </c>
       <c r="O10" s="2">
@@ -2097,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2128,13 +1506,13 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>7</v>
       </c>
-      <c r="M11" s="5">
-        <v>2</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3">
         <v>3</v>
       </c>
       <c r="O11" s="2">
@@ -2147,7 +1525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2178,13 +1556,13 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <v>15</v>
       </c>
-      <c r="M12" s="5">
-        <v>2</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
         <v>3</v>
       </c>
       <c r="O12" s="2">
@@ -2197,7 +1575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2228,13 +1606,13 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <v>11</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13">
         <v>9</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="3">
         <v>13</v>
       </c>
       <c r="O13" s="2">
@@ -2247,7 +1625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2278,13 +1656,13 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <v>11</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14">
         <v>11</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="3">
         <v>15</v>
       </c>
       <c r="O14" s="2">
@@ -2297,7 +1675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2328,17 +1706,17 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <v>6</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15">
         <v>6</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2369,17 +1747,17 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>18</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16">
         <v>1.4</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="3">
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2410,13 +1788,13 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17">
         <v>4</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="3">
         <v>5</v>
       </c>
       <c r="O17" s="2">
@@ -2426,7 +1804,7 @@
         <v>0.8</v>
       </c>
       <c r="Q17" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2460,13 +1838,13 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <v>19</v>
       </c>
-      <c r="M18" s="5">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
         <v>1</v>
       </c>
       <c r="O18" s="2">
@@ -2488,7 +1866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2519,11 +1897,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2554,17 +1932,17 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="2">
         <v>15</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20">
         <v>5</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2595,16 +1973,16 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>23</v>
       </c>
-      <c r="M21" s="5">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
         <v>7</v>
       </c>
       <c r="P21">
@@ -2614,7 +1992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2645,13 +2023,13 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="2">
         <v>24</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22">
         <v>24</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="3">
         <v>30</v>
       </c>
     </row>
@@ -2745,13 +2123,13 @@
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="2">
         <v>26</v>
       </c>
-      <c r="M24" s="5">
-        <v>2</v>
-      </c>
-      <c r="N24" s="6">
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24" s="3">
         <v>2</v>
       </c>
       <c r="O24" s="2">
@@ -2773,7 +2151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2804,13 +2182,13 @@
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="2">
         <v>6</v>
       </c>
-      <c r="M25" s="5">
-        <v>2</v>
-      </c>
-      <c r="N25" s="6">
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" s="3">
         <v>4</v>
       </c>
       <c r="O25" s="2">
@@ -2823,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2854,13 +2232,13 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="2">
         <v>6</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26">
         <v>5</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="3">
         <v>7</v>
       </c>
       <c r="O26" s="2">
@@ -2873,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2904,13 +2282,13 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="2">
         <v>15</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="3">
         <v>4</v>
       </c>
       <c r="O27" s="2">
@@ -2923,7 +2301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2954,17 +2332,17 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="2">
         <v>7</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28">
         <v>3</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2995,13 +2373,13 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="2">
         <v>7</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29">
         <v>3</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="3">
         <v>4</v>
       </c>
       <c r="O29" s="2">
@@ -3048,13 +2426,13 @@
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="2">
         <v>15</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30">
         <v>3</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="3">
         <v>4</v>
       </c>
       <c r="O30" s="2">
@@ -3076,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3110,13 +2488,13 @@
       <c r="K31">
         <v>1</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="2">
         <v>7</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31">
         <v>4</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="3">
         <v>6</v>
       </c>
       <c r="O31" s="2">
@@ -3160,13 +2538,13 @@
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="2">
         <v>15</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32">
         <v>5</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="3">
         <v>7</v>
       </c>
       <c r="O32" s="2">
@@ -3188,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3219,13 +2597,13 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33" s="4">
-        <v>2</v>
-      </c>
-      <c r="M33" s="5">
+      <c r="L33" s="2">
+        <v>2</v>
+      </c>
+      <c r="M33">
         <v>6</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="3">
         <v>8</v>
       </c>
     </row>
@@ -3260,13 +2638,13 @@
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="2">
         <v>19</v>
       </c>
-      <c r="M34" s="5">
-        <v>1</v>
-      </c>
-      <c r="N34" s="6">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3">
         <v>1</v>
       </c>
       <c r="O34" s="2">
@@ -3319,13 +2697,13 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="2">
         <v>32</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35">
         <v>30</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="3">
         <v>30</v>
       </c>
       <c r="O35" s="2">
@@ -3347,7 +2725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3378,13 +2756,13 @@
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="2">
         <v>33</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36">
         <v>50</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="3">
         <v>70</v>
       </c>
       <c r="O36" s="2">
@@ -3399,32 +2777,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.425" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.9166666666667" customWidth="1"/>
-    <col min="7" max="8" width="10.2833333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.1416666666667" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3894,7 +3269,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:9">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3913,7 +3288,6 @@
       <c r="F24" t="s">
         <v>113</v>
       </c>
-      <c r="G24"/>
       <c r="I24">
         <v>-1</v>
       </c>
@@ -3981,7 +3355,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:9">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4070,7 +3444,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:9">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4090,7 +3464,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:9">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4152,31 +3526,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.425" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="14.425" customWidth="1"/>
-    <col min="4" max="5" width="16.1416666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.425" customWidth="1"/>
-    <col min="7" max="7" width="14.425" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.1416666666667" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4215,7 +3587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4244,7 +3616,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4267,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4290,7 +3662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4313,7 +3685,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4336,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4359,7 +3731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4382,7 +3754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4405,7 +3777,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4428,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4442,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>29</v>
@@ -4451,7 +3823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4465,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>29</v>
@@ -4476,29 +3848,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85833333333333" customWidth="1"/>
-    <col min="2" max="2" width="22.7083333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.1416666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.5666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.0916666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4524,7 +3894,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4544,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4563,7 +3933,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\VTuberSim\Assets\Resources\Configurations\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880D011E-E76C-46B3-A412-BEB0B354738A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="1820" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="10480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -27,6 +21,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="199">
   <si>
     <t>ID</t>
   </si>
@@ -342,6 +338,12 @@
     <t>同接+50，神采+2</t>
   </si>
   <si>
+    <t>直播通知</t>
+  </si>
+  <si>
+    <t>同接+20，以后，每当打出A卡时，同接+10,</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -549,6 +551,15 @@
     <t>BAViewerCount</t>
   </si>
   <si>
+    <t>每当使用A卡时，同接+X</t>
+  </si>
+  <si>
+    <t>每当使用A卡同接+10</t>
+  </si>
+  <si>
+    <t>每当使用A卡时，同接+10</t>
+  </si>
+  <si>
     <t>BuffType</t>
   </si>
   <si>
@@ -613,30 +624,369 @@
   </si>
   <si>
     <t>VCardTypeCondition</t>
+  </si>
+  <si>
+    <t>使用A卡时</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -662,9 +1012,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -674,17 +1266,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -942,46 +1578,47 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.425" customWidth="1"/>
+    <col min="2" max="2" width="8.70833333333333" customWidth="1"/>
+    <col min="3" max="3" width="44.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.425" customWidth="1"/>
+    <col min="5" max="5" width="13.425" customWidth="1"/>
+    <col min="6" max="6" width="10.5666666666667" customWidth="1"/>
+    <col min="7" max="7" width="9.70833333333333" customWidth="1"/>
+    <col min="8" max="8" width="7.14166666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.2833333333333" customWidth="1"/>
+    <col min="11" max="11" width="13.7083333333333" customWidth="1"/>
+    <col min="12" max="12" width="9.70833333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.1416666666667" customWidth="1"/>
+    <col min="14" max="14" width="17.7083333333333" style="3" customWidth="1"/>
     <col min="15" max="15" width="11" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.2833333333333" customWidth="1"/>
+    <col min="17" max="17" width="17.1416666666667" style="3" customWidth="1"/>
     <col min="18" max="18" width="9" style="2"/>
-    <col min="20" max="20" width="17.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.7083333333333" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.7083333333333" style="2" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.7083333333333" style="3" customWidth="1"/>
+    <col min="24" max="24" width="12.425" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.425" style="3" customWidth="1"/>
+    <col min="26" max="26" width="12.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1067,7 +1704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1108,7 +1745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1149,7 +1786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1190,7 +1827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1240,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1278,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1313,7 +1950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1375,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1425,7 +2062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1475,7 +2112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1525,7 +2162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1575,7 +2212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1625,7 +2262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1675,7 +2312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1716,7 +2353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1757,7 +2394,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1804,7 +2441,7 @@
         <v>0.8</v>
       </c>
       <c r="Q17" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1866,7 +2503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1901,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1942,7 +2579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1992,7 +2629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2151,7 +2788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2201,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2251,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2301,7 +2938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2342,7 +2979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2454,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2566,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2725,7 +3362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2775,31 +3412,84 @@
         <v>4</v>
       </c>
     </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="2">
+        <v>4</v>
+      </c>
+      <c r="I37" s="3">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>33</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37" s="3">
+        <v>30</v>
+      </c>
+      <c r="O37" s="2">
+        <v>35</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.425" customWidth="1"/>
+    <col min="2" max="2" width="27.425" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.2833333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.8583333333333" customWidth="1"/>
+    <col min="7" max="8" width="10.2833333333333" customWidth="1"/>
+    <col min="9" max="9" width="15.1416666666667" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2817,19 +3507,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2837,13 +3527,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -2854,19 +3544,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2877,16 +3567,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -2897,16 +3587,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -2917,13 +3607,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -2934,16 +3624,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2954,13 +3644,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2974,13 +3664,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2994,13 +3684,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
         <v>129</v>
-      </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" t="s">
-        <v>127</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3014,13 +3704,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -3031,16 +3721,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -3051,16 +3741,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -3071,19 +3761,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -3094,16 +3784,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -3114,16 +3804,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -3134,13 +3824,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -3154,16 +3844,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3174,13 +3864,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -3194,13 +3884,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3214,16 +3904,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -3234,16 +3924,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -3254,13 +3944,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -3274,19 +3964,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -3297,13 +3987,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -3317,16 +4007,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3340,16 +4030,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -3360,13 +4050,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -3380,19 +4070,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3406,13 +4096,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -3426,19 +4116,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -3449,16 +4139,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E32">
         <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>166</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -3469,16 +4162,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E33">
         <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>166</v>
       </c>
       <c r="I33">
         <v>-1</v>
@@ -3489,16 +4185,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -3509,46 +4205,94 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I35">
         <v>-1</v>
       </c>
     </row>
+    <row r="36" customFormat="1" spans="1:9">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:9">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.425" customWidth="1"/>
+    <col min="2" max="2" width="27.425" customWidth="1"/>
+    <col min="3" max="3" width="14.425" customWidth="1"/>
+    <col min="4" max="5" width="16.1416666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.425" customWidth="1"/>
+    <col min="7" max="7" width="14.425" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.1416666666667" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3560,13 +4304,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -3587,15 +4331,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3616,15 +4360,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3639,15 +4383,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3662,15 +4406,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3685,15 +4429,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
         <v>180</v>
-      </c>
-      <c r="C6" t="s">
-        <v>175</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3708,15 +4452,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3731,15 +4475,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3754,15 +4498,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3777,15 +4521,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" customFormat="1" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3800,15 +4544,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3822,16 +4566,22 @@
       <c r="G11">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3845,30 +4595,61 @@
       <c r="G12">
         <v>24</v>
       </c>
+      <c r="H12">
+        <v>31</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.85833333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.7083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.1416666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.5666666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.1416666666667" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3882,30 +4663,30 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -3914,25 +4695,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="13" customHeight="1" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="4" ht="13" customHeight="1" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Configurations/NewCards.xlsx
+++ b/Assets/Resources/Configurations/NewCards.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="202">
   <si>
     <t>ID</t>
   </si>
@@ -113,6 +113,9 @@
     <t>NE2Param</t>
   </si>
   <si>
+    <t>功能是否正常</t>
+  </si>
+  <si>
     <t>互动</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
     <t>参数+9/2次</t>
   </si>
   <si>
+    <t>加分动画显示需改进</t>
+  </si>
+  <si>
     <t>计划</t>
   </si>
   <si>
@@ -266,7 +272,7 @@
     <t>红温</t>
   </si>
   <si>
-    <t>体力消耗增加+2回合，参数+30，神采+5</t>
+    <t>体力消耗增加50%+2回合，参数+30，神采+5</t>
   </si>
   <si>
     <t>美丽动人</t>
@@ -309,6 +315,9 @@
   </si>
   <si>
     <t>专注+4，卡牌使用次数+1</t>
+  </si>
+  <si>
+    <t>状态火热</t>
   </si>
   <si>
     <t>好调+5，下一回合开始时，参数+18，下下回合开始时，参数+24</t>
@@ -792,12 +801,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -963,12 +984,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1134,7 +1149,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,16 +1173,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1176,95 +1191,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1584,12 +1602,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <selection pane="topRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1601,27 +1619,28 @@
     <col min="5" max="5" width="13.425" customWidth="1"/>
     <col min="6" max="6" width="10.5666666666667" customWidth="1"/>
     <col min="7" max="7" width="9.70833333333333" customWidth="1"/>
-    <col min="8" max="8" width="7.14166666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.14166666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.2833333333333" customWidth="1"/>
     <col min="11" max="11" width="13.7083333333333" customWidth="1"/>
-    <col min="12" max="12" width="9.70833333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.70833333333333" style="3" customWidth="1"/>
     <col min="13" max="13" width="12.1416666666667" customWidth="1"/>
-    <col min="14" max="14" width="17.7083333333333" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.7083333333333" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11" style="3" customWidth="1"/>
     <col min="16" max="16" width="12.2833333333333" customWidth="1"/>
-    <col min="17" max="17" width="17.1416666666667" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9" style="2"/>
-    <col min="20" max="20" width="17.7083333333333" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.7083333333333" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.1416666666667" style="4" customWidth="1"/>
+    <col min="18" max="18" width="9" style="3"/>
+    <col min="20" max="20" width="17.7083333333333" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10.7083333333333" style="3" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="17.7083333333333" style="3" customWidth="1"/>
-    <col min="24" max="24" width="12.425" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.425" style="3" customWidth="1"/>
+    <col min="23" max="23" width="17.7083333333333" style="4" customWidth="1"/>
+    <col min="24" max="24" width="12.425" style="3" customWidth="1"/>
+    <col min="25" max="25" width="12.425" style="4" customWidth="1"/>
     <col min="26" max="26" width="12.2833333333333" customWidth="1"/>
+    <col min="28" max="28" width="4.28333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1643,10 +1662,10 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1655,46 +1674,46 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="Z1" t="s">
@@ -1703,30 +1722,33 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3">
         <v>4</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>3</v>
       </c>
       <c r="J2">
@@ -1735,39 +1757,40 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>11</v>
       </c>
       <c r="M2">
         <v>7</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="AB2" s="5"/>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>0</v>
       </c>
       <c r="J3">
@@ -1776,39 +1799,40 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>2</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>5</v>
       </c>
       <c r="J4">
@@ -1817,39 +1841,40 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <v>11</v>
       </c>
       <c r="M4">
         <v>15</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="AB4" s="5"/>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>3</v>
       </c>
       <c r="J5">
@@ -1858,51 +1883,52 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>11</v>
       </c>
       <c r="M5">
         <v>5</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="4">
         <v>5</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3">
         <v>2</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
-      <c r="Q5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="Q5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="5"/>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
         <v>1</v>
       </c>
       <c r="J6">
@@ -1911,33 +1937,34 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5"/>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3">
         <v>5</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>5</v>
       </c>
       <c r="J7">
@@ -1946,36 +1973,37 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="AB7" s="5"/>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="J8">
@@ -1984,57 +2012,58 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>2</v>
       </c>
       <c r="M8">
         <v>7</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="4">
         <v>7</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3">
         <v>3</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2">
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
         <v>14</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
-      <c r="T8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+        <v>32</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="J9">
@@ -2043,48 +2072,49 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>17</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
         <v>2</v>
       </c>
       <c r="P9">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="AB9" s="5"/>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
         <v>2</v>
       </c>
       <c r="J10">
@@ -2093,48 +2123,49 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="3">
         <v>6</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="4">
         <v>4</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="3">
         <v>2</v>
       </c>
       <c r="P10">
         <v>3</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
         <v>2</v>
       </c>
       <c r="J11">
@@ -2143,48 +2174,49 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3">
         <v>7</v>
       </c>
       <c r="M11">
         <v>2</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="4">
         <v>3</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="3">
         <v>2</v>
       </c>
       <c r="P11">
         <v>2</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
         <v>2</v>
       </c>
       <c r="J12">
@@ -2193,48 +2225,49 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="3">
         <v>15</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="4">
         <v>3</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="3">
         <v>2</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3">
         <v>6</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <v>6</v>
       </c>
       <c r="J13">
@@ -2243,48 +2276,52 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="3">
         <v>11</v>
       </c>
       <c r="M13">
         <v>9</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="4">
         <v>13</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="3">
         <v>11</v>
       </c>
       <c r="P13">
         <v>9</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="AB13" s="5"/>
+      <c r="AC13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="2">
+        <v>32</v>
+      </c>
+      <c r="H14" s="3">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <v>5</v>
       </c>
       <c r="J14">
@@ -2293,48 +2330,49 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="3">
         <v>11</v>
       </c>
       <c r="M14">
         <v>11</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="4">
         <v>15</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="3">
         <v>2</v>
       </c>
       <c r="P14">
         <v>7</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="2">
+        <v>32</v>
+      </c>
+      <c r="H15" s="3">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <v>4</v>
       </c>
       <c r="J15">
@@ -2343,39 +2381,40 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="3">
         <v>6</v>
       </c>
       <c r="M15">
         <v>6</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="2">
+        <v>32</v>
+      </c>
+      <c r="H16" s="3">
         <v>4</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4">
         <v>4</v>
       </c>
       <c r="J16">
@@ -2384,39 +2423,40 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="3">
         <v>18</v>
       </c>
       <c r="M16">
         <v>1.4</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="2">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3">
         <v>6</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4">
         <v>5</v>
       </c>
       <c r="J17">
@@ -2425,48 +2465,49 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="3">
         <v>6</v>
       </c>
       <c r="M17">
         <v>4</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="4">
         <v>5</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="3">
         <v>18</v>
       </c>
       <c r="P17">
         <v>0.8</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="4">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="AB17" s="5"/>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="2">
+        <v>32</v>
+      </c>
+      <c r="H18" s="3">
         <v>3</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="4">
         <v>3</v>
       </c>
       <c r="J18">
@@ -2475,57 +2516,58 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="3">
         <v>19</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="2">
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
         <v>2</v>
       </c>
       <c r="P18">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="4">
         <v>6</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="3">
         <v>21</v>
       </c>
       <c r="S18">
         <v>2</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="2">
+        <v>32</v>
+      </c>
+      <c r="H19" s="3">
         <v>6</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="4">
         <v>5</v>
       </c>
       <c r="J19">
@@ -2534,33 +2576,34 @@
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5"/>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="2">
+        <v>32</v>
+      </c>
+      <c r="H20" s="3">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4">
         <v>3</v>
       </c>
       <c r="J20">
@@ -2569,39 +2612,40 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="3">
         <v>15</v>
       </c>
       <c r="M20">
         <v>5</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="2">
+        <v>32</v>
+      </c>
+      <c r="H21" s="3">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="4">
         <v>4</v>
       </c>
       <c r="J21">
@@ -2610,48 +2654,49 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="3">
         <v>23</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
-      <c r="N21" s="3">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2">
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
         <v>7</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="Q21" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="2">
+        <v>32</v>
+      </c>
+      <c r="H22" s="3">
         <v>6</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="4">
         <v>6</v>
       </c>
       <c r="J22">
@@ -2660,39 +2705,40 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="3">
         <v>24</v>
       </c>
       <c r="M22">
         <v>24</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="AB22" s="6"/>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="2">
+        <v>32</v>
+      </c>
+      <c r="H23" s="3">
         <v>8</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="4">
         <v>6</v>
       </c>
       <c r="J23">
@@ -2701,57 +2747,58 @@
       <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="3">
         <v>15</v>
       </c>
       <c r="M23">
         <v>4</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="4">
         <v>5</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="3">
         <v>7</v>
       </c>
       <c r="P23">
         <v>5</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="4">
         <v>6</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="3">
         <v>21</v>
       </c>
       <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23" s="4">
         <v>3</v>
       </c>
-      <c r="T23" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="2">
+        <v>32</v>
+      </c>
+      <c r="H24" s="3">
         <v>5</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="4">
         <v>4</v>
       </c>
       <c r="J24">
@@ -2760,57 +2807,58 @@
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="3">
         <v>26</v>
       </c>
       <c r="M24">
         <v>2</v>
       </c>
-      <c r="N24" s="3">
-        <v>2</v>
-      </c>
-      <c r="O24" s="2">
+      <c r="N24" s="4">
+        <v>2</v>
+      </c>
+      <c r="O24" s="3">
         <v>11</v>
       </c>
       <c r="P24">
         <v>30</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="4">
         <v>42</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="3">
         <v>2</v>
       </c>
       <c r="S24">
         <v>5</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="2">
+        <v>32</v>
+      </c>
+      <c r="H25" s="3">
         <v>4</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="4">
         <v>4</v>
       </c>
       <c r="J25">
@@ -2819,48 +2867,49 @@
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="3">
         <v>6</v>
       </c>
       <c r="M25">
         <v>2</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="4">
         <v>4</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="3">
         <v>28</v>
       </c>
       <c r="P25">
         <v>1</v>
       </c>
-      <c r="Q25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="Q25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
+        <v>32</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
         <v>1</v>
       </c>
       <c r="J26">
@@ -2869,48 +2918,49 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="3">
         <v>6</v>
       </c>
       <c r="M26">
         <v>5</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="4">
         <v>7</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="3">
         <v>2</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
-      <c r="Q26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="Q26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="5"/>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="2">
+        <v>32</v>
+      </c>
+      <c r="H27" s="3">
         <v>4</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="4">
         <v>4</v>
       </c>
       <c r="J27">
@@ -2919,48 +2969,49 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="3">
         <v>15</v>
       </c>
       <c r="M27">
         <v>3</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="4">
         <v>4</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="3">
         <v>11</v>
       </c>
       <c r="P27">
         <v>8</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="AB27" s="5"/>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="2">
+        <v>32</v>
+      </c>
+      <c r="H28" s="3">
         <v>3</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="4">
         <v>2</v>
       </c>
       <c r="J28">
@@ -2969,39 +3020,40 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="3">
         <v>7</v>
       </c>
       <c r="M28">
         <v>3</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="AB28" s="5"/>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="2">
+        <v>32</v>
+      </c>
+      <c r="H29" s="3">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="4">
         <v>2</v>
       </c>
       <c r="J29">
@@ -3010,51 +3062,52 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="3">
         <v>7</v>
       </c>
       <c r="M29">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="4">
         <v>4</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="3">
         <v>2</v>
       </c>
       <c r="P29">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="AB29" s="5"/>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="3">
         <v>3</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="4">
         <v>2</v>
       </c>
       <c r="J30">
@@ -3063,60 +3116,61 @@
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>15</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="4">
         <v>4</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="3">
         <v>11</v>
       </c>
       <c r="P30">
         <v>9</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="4">
         <v>14</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="3">
         <v>14</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
-      <c r="T30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="T30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="5"/>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
-      <c r="H31" s="2">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
         <v>1</v>
       </c>
       <c r="J31">
@@ -3125,48 +3179,49 @@
       <c r="K31">
         <v>1</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="3">
         <v>7</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="4">
         <v>6</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="3">
         <v>14</v>
       </c>
       <c r="P31">
         <v>1</v>
       </c>
-      <c r="Q31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="Q31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="5"/>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="2">
+        <v>32</v>
+      </c>
+      <c r="H32" s="3">
         <v>10</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="4">
         <v>8</v>
       </c>
       <c r="J32">
@@ -3175,57 +3230,58 @@
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="3">
         <v>15</v>
       </c>
       <c r="M32">
         <v>5</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="4">
         <v>7</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="3">
         <v>30</v>
       </c>
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="3">
-        <v>1</v>
-      </c>
-      <c r="R32" s="2">
+      <c r="Q32" s="4">
+        <v>1</v>
+      </c>
+      <c r="R32" s="3">
         <v>31</v>
       </c>
       <c r="S32">
         <v>1</v>
       </c>
-      <c r="T32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="T32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="6"/>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3">
+        <v>32</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
         <v>0</v>
       </c>
       <c r="J33">
@@ -3234,39 +3290,40 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="3">
         <v>2</v>
       </c>
       <c r="M33">
         <v>6</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="AB33" s="5"/>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="2">
+        <v>32</v>
+      </c>
+      <c r="H34" s="3">
         <v>6</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="4">
         <v>5</v>
       </c>
       <c r="J34">
@@ -3275,57 +3332,58 @@
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="3">
         <v>19</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
-      <c r="N34" s="3">
-        <v>1</v>
-      </c>
-      <c r="O34" s="2">
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3">
         <v>11</v>
       </c>
       <c r="P34">
         <v>4</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34" s="4">
         <v>7</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="3">
         <v>14</v>
       </c>
       <c r="S34">
         <v>1</v>
       </c>
-      <c r="T34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="T34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="6"/>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="2">
+        <v>32</v>
+      </c>
+      <c r="H35" s="3">
         <v>5</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="4">
         <v>5</v>
       </c>
       <c r="J35">
@@ -3334,57 +3392,58 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="3">
         <v>32</v>
       </c>
       <c r="M35">
         <v>30</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="4">
         <v>30</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="3">
         <v>2</v>
       </c>
       <c r="P35">
         <v>3</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="4">
         <v>5</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="3">
         <v>21</v>
       </c>
       <c r="S35">
         <v>2</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="AB35" s="5"/>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="2">
+        <v>32</v>
+      </c>
+      <c r="H36" s="3">
         <v>4</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="4">
         <v>4</v>
       </c>
       <c r="J36">
@@ -3393,48 +3452,49 @@
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="3">
         <v>33</v>
       </c>
       <c r="M36">
         <v>50</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="4">
         <v>70</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="3">
         <v>2</v>
       </c>
       <c r="P36">
         <v>2</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="AB36" s="6"/>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="2">
+        <v>32</v>
+      </c>
+      <c r="H37" s="3">
         <v>4</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="4">
         <v>3</v>
       </c>
       <c r="J37">
@@ -3443,24 +3503,25 @@
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="3">
         <v>33</v>
       </c>
       <c r="M37">
         <v>20</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="4">
         <v>30</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="3">
         <v>35</v>
       </c>
       <c r="P37">
         <v>1</v>
       </c>
-      <c r="Q37" s="3">
-        <v>1</v>
-      </c>
+      <c r="Q37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3472,12 +3533,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3507,56 +3568,57 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I2">
         <v>-1</v>
       </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3567,16 +3629,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
         <v>116</v>
       </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -3587,16 +3649,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -3607,13 +3669,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -3624,16 +3686,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -3644,13 +3706,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3664,13 +3726,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3684,13 +3746,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3704,13 +3766,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -3721,16 +3783,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -3741,16 +3803,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -3761,19 +3823,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -3784,16 +3846,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -3804,16 +3866,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -3824,13 +3886,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -3844,16 +3906,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3864,13 +3926,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -3884,13 +3946,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3904,16 +3966,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -3924,16 +3986,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -3944,13 +4006,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -3964,19 +4026,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -3987,13 +4049,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -4007,16 +4069,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -4030,16 +4092,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -4050,13 +4112,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -4070,19 +4132,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -4096,13 +4158,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -4116,19 +4178,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -4139,19 +4201,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E32">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -4162,19 +4224,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I33">
         <v>-1</v>
@@ -4185,16 +4247,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -4205,16 +4267,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -4225,19 +4287,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -4251,13 +4313,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E37">
         <v>11</v>
@@ -4304,13 +4366,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -4336,10 +4398,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4365,10 +4427,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4388,10 +4450,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4411,10 +4473,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4434,10 +4496,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4457,10 +4519,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4480,10 +4542,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4503,10 +4565,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4526,10 +4588,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4549,10 +4611,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4578,10 +4640,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4607,10 +4669,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4638,7 +4700,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -4663,16 +4725,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4680,13 +4742,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -4700,16 +4762,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="13" customHeight="1" spans="1:6">
@@ -4717,16 +4779,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
         <v>198</v>
       </c>
-      <c r="C4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" t="s">
-        <v>195</v>
-      </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
